--- a/Attitude Loose/Attitude Loose/Templates/Biomarker Template.xlsx
+++ b/Attitude Loose/Attitude Loose/Templates/Biomarker Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PENDING" sheetId="1" r:id="rId1"/>
@@ -197,8 +197,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H2" insertRow="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:H2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H3" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:H3"/>
   <tableColumns count="8">
     <tableColumn id="1" name="NCI ID" dataDxfId="27"/>
     <tableColumn id="2" name="NCT ID" dataDxfId="26"/>
@@ -214,8 +214,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:H2" insertRow="1" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:H2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:H3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:H3"/>
   <tableColumns count="8">
     <tableColumn id="1" name="NCI ID" dataDxfId="17"/>
     <tableColumn id="2" name="NCT ID" dataDxfId="16"/>
@@ -231,8 +231,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:H2" insertRow="1" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:H3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H3"/>
   <tableColumns count="8">
     <tableColumn id="1" name="NCI ID" dataDxfId="7"/>
     <tableColumn id="2" name="NCT ID" dataDxfId="6"/>
@@ -512,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
